--- a/Code/Results/Cases/Case_3_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.83192071422085</v>
+        <v>14.28763719528746</v>
       </c>
       <c r="C2">
-        <v>14.75236675314492</v>
+        <v>13.57739184992911</v>
       </c>
       <c r="D2">
-        <v>4.856294151257448</v>
+        <v>4.341156593273206</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.69769235419474</v>
+        <v>20.44944119857568</v>
       </c>
       <c r="G2">
-        <v>16.90021250464907</v>
+        <v>22.13268719808953</v>
       </c>
       <c r="H2">
-        <v>7.310159496535475</v>
+        <v>12.65824369638209</v>
       </c>
       <c r="I2">
-        <v>11.18315334519489</v>
+        <v>19.9821073716528</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.738906854554007</v>
+        <v>11.01622645986776</v>
       </c>
       <c r="M2">
-        <v>12.4425264066621</v>
+        <v>14.45939861326351</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.36987733772221</v>
+        <v>18.37409351165983</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.42095029660593</v>
+        <v>13.62222537998159</v>
       </c>
       <c r="C3">
-        <v>14.2480442596417</v>
+        <v>13.40173155081667</v>
       </c>
       <c r="D3">
-        <v>4.63687635112953</v>
+        <v>4.256085223386085</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.39644473785219</v>
+        <v>20.50259121829934</v>
       </c>
       <c r="G3">
-        <v>16.51934477051527</v>
+        <v>22.21854043359447</v>
       </c>
       <c r="H3">
-        <v>7.386565916583303</v>
+        <v>12.71372382683534</v>
       </c>
       <c r="I3">
-        <v>11.53800883430054</v>
+        <v>20.12479791732333</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.701871785719877</v>
+        <v>11.04037989549928</v>
       </c>
       <c r="M3">
-        <v>11.80913611743275</v>
+        <v>14.31882187748653</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.39398352004455</v>
+        <v>18.4655489495442</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.50338927457025</v>
+        <v>13.19629600588131</v>
       </c>
       <c r="C4">
-        <v>13.93033197327488</v>
+        <v>13.29311027979399</v>
       </c>
       <c r="D4">
-        <v>4.496334156448144</v>
+        <v>4.202453401185002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.22765972389533</v>
+        <v>20.54230196721789</v>
       </c>
       <c r="G4">
-        <v>16.31362981584548</v>
+        <v>22.28177580724263</v>
       </c>
       <c r="H4">
-        <v>7.439719419499713</v>
+        <v>12.75025590998129</v>
       </c>
       <c r="I4">
-        <v>11.76599765008118</v>
+        <v>20.21724082664188</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.683154289094645</v>
+        <v>11.05703551618506</v>
       </c>
       <c r="M4">
-        <v>11.40496932484568</v>
+        <v>14.2332096074509</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.42383361211659</v>
+        <v>18.52683226330372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.11657575805166</v>
+        <v>13.01855328849873</v>
       </c>
       <c r="C5">
-        <v>13.79899101543934</v>
+        <v>13.24869302301696</v>
       </c>
       <c r="D5">
-        <v>4.437644009623997</v>
+        <v>4.180264107764927</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.16295169868124</v>
+        <v>20.56025666370326</v>
       </c>
       <c r="G5">
-        <v>16.2368189240038</v>
+        <v>22.31017104378979</v>
       </c>
       <c r="H5">
-        <v>7.462884087414305</v>
+        <v>12.76576314134915</v>
       </c>
       <c r="I5">
-        <v>11.86137321594934</v>
+        <v>20.25612821101293</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.676520867782656</v>
+        <v>11.06428174025765</v>
       </c>
       <c r="M5">
-        <v>11.23659792779625</v>
+        <v>14.19852834517033</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.43960768346779</v>
+        <v>18.55309148884597</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.05156617673983</v>
+        <v>12.98879345204995</v>
       </c>
       <c r="C6">
-        <v>13.77707381521166</v>
+        <v>13.24130947156169</v>
       </c>
       <c r="D6">
-        <v>4.427814377864022</v>
+        <v>4.176559956110337</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.15245270187835</v>
+        <v>20.56334484131295</v>
       </c>
       <c r="G6">
-        <v>16.22448588820469</v>
+        <v>22.31504408180518</v>
       </c>
       <c r="H6">
-        <v>7.466819578904427</v>
+        <v>12.7683755514246</v>
       </c>
       <c r="I6">
-        <v>11.87735742987827</v>
+        <v>20.2626589296623</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.675478899293179</v>
+        <v>11.06551268530771</v>
       </c>
       <c r="M6">
-        <v>11.20842383842472</v>
+        <v>14.19278287973194</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.44243985049792</v>
+        <v>18.55752935261611</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.49822482252398</v>
+        <v>13.19391552427521</v>
       </c>
       <c r="C7">
-        <v>13.92856802054208</v>
+        <v>13.29251182138239</v>
       </c>
       <c r="D7">
-        <v>4.495548317057013</v>
+        <v>4.202155476708445</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.22677056638915</v>
+        <v>20.54253694485988</v>
       </c>
       <c r="G7">
-        <v>16.31256560575714</v>
+        <v>22.28214814808246</v>
       </c>
       <c r="H7">
-        <v>7.440025819190523</v>
+        <v>12.75046253544579</v>
       </c>
       <c r="I7">
-        <v>11.76727401189044</v>
+        <v>20.21776034931607</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.683060827312342</v>
+        <v>11.05713138325052</v>
       </c>
       <c r="M7">
-        <v>11.40271322495691</v>
+        <v>14.2327410088854</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.42403196218046</v>
+        <v>18.52718120369322</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.35603290120273</v>
+        <v>14.06191386547264</v>
       </c>
       <c r="C8">
-        <v>14.58023660405455</v>
+        <v>13.51700634724864</v>
       </c>
       <c r="D8">
-        <v>4.781871332278344</v>
+        <v>4.312124336539457</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.59047222581447</v>
+        <v>20.46629453462701</v>
       </c>
       <c r="G8">
-        <v>16.76303021586399</v>
+        <v>22.16009455039228</v>
       </c>
       <c r="H8">
-        <v>7.335169383006359</v>
+        <v>12.67686105552683</v>
       </c>
       <c r="I8">
-        <v>11.30336209199317</v>
+        <v>20.03030544521479</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.725292419298603</v>
+        <v>11.02417569272743</v>
       </c>
       <c r="M8">
-        <v>12.22739242261797</v>
+        <v>14.41079994719161</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.37496187649492</v>
+        <v>18.40456035125478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.59426967590504</v>
+        <v>15.61922586867429</v>
       </c>
       <c r="C9">
-        <v>15.78822842128389</v>
+        <v>13.94947587515151</v>
       </c>
       <c r="D9">
-        <v>5.295566316171382</v>
+        <v>4.515957069728207</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.43096332964901</v>
+        <v>20.3732160367077</v>
       </c>
       <c r="G9">
-        <v>17.86978658318246</v>
+        <v>22.00501978156978</v>
       </c>
       <c r="H9">
-        <v>7.182126932594501</v>
+        <v>12.55211493541287</v>
       </c>
       <c r="I9">
-        <v>10.47784861651113</v>
+        <v>19.70096383719544</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.840721781575223</v>
+        <v>10.9740346252634</v>
       </c>
       <c r="M9">
-        <v>13.81362227416665</v>
+        <v>14.76422565474504</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.40571534792724</v>
+        <v>18.20497812000044</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.72923737578042</v>
+        <v>16.66737555131479</v>
       </c>
       <c r="C10">
-        <v>16.62617224043087</v>
+        <v>14.26026495983988</v>
       </c>
       <c r="D10">
-        <v>5.642137975443583</v>
+        <v>4.657603348809118</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.12350076576205</v>
+        <v>20.33956724233782</v>
       </c>
       <c r="G10">
-        <v>18.81650789953414</v>
+        <v>21.94342975622351</v>
       </c>
       <c r="H10">
-        <v>7.106204664962947</v>
+        <v>12.47241939760199</v>
       </c>
       <c r="I10">
-        <v>9.929677395043909</v>
+        <v>19.48222136971546</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.946264337567391</v>
+        <v>10.94602731333844</v>
       </c>
       <c r="M10">
-        <v>14.97428170008023</v>
+        <v>15.02470506283116</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.51559484105583</v>
+        <v>18.083505390073</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64818406331519</v>
+        <v>17.12214873612405</v>
       </c>
       <c r="C11">
-        <v>16.99544108049459</v>
+        <v>14.39969184956747</v>
       </c>
       <c r="D11">
-        <v>5.7928542519505</v>
+        <v>4.720107983462225</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.45408123567769</v>
+        <v>20.33185403050544</v>
       </c>
       <c r="G11">
-        <v>19.27504176946972</v>
+        <v>21.9269462760385</v>
       </c>
       <c r="H11">
-        <v>7.080627716249968</v>
+        <v>12.43876345139876</v>
       </c>
       <c r="I11">
-        <v>9.695017700415926</v>
+        <v>19.38773328504634</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.998934467999575</v>
+        <v>10.93520296194277</v>
       </c>
       <c r="M11">
-        <v>15.47519263532677</v>
+        <v>15.14300559555516</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.58646705550022</v>
+        <v>18.03375823356702</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.98871344852643</v>
+        <v>17.29111228628535</v>
       </c>
       <c r="C12">
-        <v>17.13348032838802</v>
+        <v>14.45217215719448</v>
       </c>
       <c r="D12">
-        <v>5.848913262670571</v>
+        <v>4.743485970418673</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.58142641707624</v>
+        <v>20.33002785240195</v>
       </c>
       <c r="G12">
-        <v>19.45256244402647</v>
+        <v>21.92237388786886</v>
       </c>
       <c r="H12">
-        <v>7.072320728541357</v>
+        <v>12.42639279425754</v>
       </c>
       <c r="I12">
-        <v>9.608490892827582</v>
+        <v>19.35267361969347</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.019559617543782</v>
+        <v>10.93137946836037</v>
       </c>
       <c r="M12">
-        <v>15.66100715662679</v>
+        <v>15.18774399090876</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.61645111291428</v>
+        <v>18.01571694166497</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.91570495849294</v>
+        <v>17.25486860253583</v>
       </c>
       <c r="C13">
-        <v>17.10383209565504</v>
+        <v>14.4408842830862</v>
       </c>
       <c r="D13">
-        <v>5.836885260486608</v>
+        <v>4.738464256803073</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.55390538963741</v>
+        <v>20.33037243645856</v>
       </c>
       <c r="G13">
-        <v>19.41415947800884</v>
+        <v>21.92328422803436</v>
       </c>
       <c r="H13">
-        <v>7.074047013922121</v>
+        <v>12.42904038885303</v>
       </c>
       <c r="I13">
-        <v>9.627018248915114</v>
+        <v>19.36019229453261</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.015087222217023</v>
+        <v>10.93219067763209</v>
       </c>
       <c r="M13">
-        <v>15.62116033794151</v>
+        <v>15.17811192087215</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.60985144315809</v>
+        <v>18.01956694703053</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67634869018874</v>
+        <v>17.13611499823887</v>
       </c>
       <c r="C14">
-        <v>17.00683404548966</v>
+        <v>14.40401600814167</v>
       </c>
       <c r="D14">
-        <v>5.797486659303283</v>
+        <v>4.722037213715777</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.46451510161512</v>
+        <v>20.33168183980437</v>
       </c>
       <c r="G14">
-        <v>19.28956939133382</v>
+        <v>21.92653658746967</v>
       </c>
       <c r="H14">
-        <v>7.079916142614809</v>
+        <v>12.43773820895625</v>
       </c>
       <c r="I14">
-        <v>9.687850909698305</v>
+        <v>19.38483446119933</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.000617625996649</v>
+        <v>10.93488288116795</v>
       </c>
       <c r="M14">
-        <v>15.49055710384683</v>
+        <v>15.14668762167709</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.58887003412164</v>
+        <v>18.03225797042227</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52876693815349</v>
+        <v>17.06294970132668</v>
       </c>
       <c r="C15">
-        <v>16.94718399623597</v>
+        <v>14.3813906895866</v>
       </c>
       <c r="D15">
-        <v>5.773221424022214</v>
+        <v>4.711936873561618</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.41004027805607</v>
+        <v>20.33262650393701</v>
       </c>
       <c r="G15">
-        <v>19.21375639152467</v>
+        <v>21.92874646497413</v>
       </c>
       <c r="H15">
-        <v>7.083693392509296</v>
+        <v>12.44311461246869</v>
       </c>
       <c r="I15">
-        <v>9.725423816575439</v>
+        <v>19.40002236286798</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.99184343755348</v>
+        <v>10.93656780146016</v>
       </c>
       <c r="M15">
-        <v>15.4100557212833</v>
+        <v>15.12743065583869</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.57643207071716</v>
+        <v>18.04013549316789</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.66813538774586</v>
+        <v>16.63720442977077</v>
       </c>
       <c r="C16">
-        <v>16.60179263150646</v>
+        <v>14.25111061337708</v>
       </c>
       <c r="D16">
-        <v>5.63214719662652</v>
+        <v>4.653478492869232</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.10220304776856</v>
+        <v>20.34022437749523</v>
       </c>
       <c r="G16">
-        <v>18.78709200232366</v>
+        <v>21.94474007102464</v>
       </c>
       <c r="H16">
-        <v>7.108064100273653</v>
+        <v>12.47467121584062</v>
       </c>
       <c r="I16">
-        <v>9.94532665709559</v>
+        <v>19.4884973123267</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.94291685942186</v>
+        <v>10.94677326320515</v>
       </c>
       <c r="M16">
-        <v>14.94100306643465</v>
+        <v>15.01696724242625</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.51139597199134</v>
+        <v>18.08686776025795</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.12682124402255</v>
+        <v>16.37031771473173</v>
       </c>
       <c r="C17">
-        <v>16.38679233299361</v>
+        <v>14.17066126503659</v>
       </c>
       <c r="D17">
-        <v>5.543812434930516</v>
+        <v>4.617111700041328</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.91728376801838</v>
+        <v>20.34683260997928</v>
       </c>
       <c r="G17">
-        <v>18.53239933411539</v>
+        <v>21.95751425612613</v>
       </c>
       <c r="H17">
-        <v>7.125372679774027</v>
+        <v>12.49469594521841</v>
       </c>
       <c r="I17">
-        <v>10.08413946250736</v>
+        <v>19.54405870870291</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.914102743963019</v>
+        <v>10.95352473750833</v>
       </c>
       <c r="M17">
-        <v>14.64633467410609</v>
+        <v>14.94912941487648</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.4769537219836</v>
+        <v>18.11695120844931</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.81054877440561</v>
+        <v>16.214741269358</v>
       </c>
       <c r="C18">
-        <v>16.26201228587558</v>
+        <v>14.12420726158819</v>
       </c>
       <c r="D18">
-        <v>5.492351986188524</v>
+        <v>4.596013476324276</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.81239055228372</v>
+        <v>20.35134816010445</v>
       </c>
       <c r="G18">
-        <v>18.38853787995872</v>
+        <v>21.96594675164962</v>
       </c>
       <c r="H18">
-        <v>7.136165923059215</v>
+        <v>12.50645813854397</v>
       </c>
       <c r="I18">
-        <v>10.16534969934113</v>
+        <v>19.57648860507969</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.897967551771778</v>
+        <v>10.95758838985548</v>
       </c>
       <c r="M18">
-        <v>14.47429863443952</v>
+        <v>14.91009461094499</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.4591017012485</v>
+        <v>18.13477291569185</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7026171094986</v>
+        <v>16.16171288228759</v>
       </c>
       <c r="C19">
-        <v>16.21957464949353</v>
+        <v>14.10844867692578</v>
       </c>
       <c r="D19">
-        <v>5.474816821077104</v>
+        <v>4.588839319012616</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15.77712976377311</v>
+        <v>20.35299969454687</v>
       </c>
       <c r="G19">
-        <v>18.34028436661203</v>
+        <v>21.96898785241686</v>
       </c>
       <c r="H19">
-        <v>7.139961537094215</v>
+        <v>12.51048259187931</v>
       </c>
       <c r="I19">
-        <v>10.19307517689402</v>
+        <v>19.58754998041004</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.892579336123165</v>
+        <v>10.95899525607165</v>
       </c>
       <c r="M19">
-        <v>14.41561146183494</v>
+        <v>14.89687627471035</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.45338909068603</v>
+        <v>18.14089595943429</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.18495414440841</v>
+        <v>16.39894315502499</v>
       </c>
       <c r="C20">
-        <v>16.40979577434929</v>
+        <v>14.17924430832777</v>
       </c>
       <c r="D20">
-        <v>5.553283493230381</v>
+        <v>4.621001841445184</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>15.93681739275415</v>
+        <v>20.34605516406493</v>
       </c>
       <c r="G20">
-        <v>18.55924037126634</v>
+        <v>21.95604203020537</v>
       </c>
       <c r="H20">
-        <v>7.123442801047646</v>
+        <v>12.49253897005611</v>
       </c>
       <c r="I20">
-        <v>10.0692194848431</v>
+        <v>19.53809521238122</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.917124654405147</v>
+        <v>10.95278736320794</v>
       </c>
       <c r="M20">
-        <v>14.67796644109184</v>
+        <v>14.95635278352366</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.48041641268559</v>
+        <v>18.11369507914516</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.74685528121135</v>
+        <v>17.17108456356298</v>
       </c>
       <c r="C21">
-        <v>17.03537402213865</v>
+        <v>14.41485402160241</v>
       </c>
       <c r="D21">
-        <v>5.809086609904569</v>
+        <v>4.726870239297243</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.49071311923742</v>
+        <v>20.33126751180778</v>
       </c>
       <c r="G21">
-        <v>19.32606012531067</v>
+        <v>21.9255359028174</v>
       </c>
       <c r="H21">
-        <v>7.07815409383985</v>
+        <v>12.43517329051296</v>
       </c>
       <c r="I21">
-        <v>9.669917588080041</v>
+        <v>19.37757689984175</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.00484916258854</v>
+        <v>10.93408464117334</v>
       </c>
       <c r="M21">
-        <v>15.52902324154607</v>
+        <v>15.15591956390262</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.59494631989811</v>
+        <v>18.02850864797784</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.72422059199396</v>
+        <v>17.65675715254643</v>
       </c>
       <c r="C22">
-        <v>17.43373471759912</v>
+        <v>14.56697106844949</v>
       </c>
       <c r="D22">
-        <v>5.970353779575156</v>
+        <v>4.794358655836125</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>16.86528154313292</v>
+        <v>20.32798386281392</v>
       </c>
       <c r="G22">
-        <v>19.84979956014969</v>
+        <v>21.91533335642296</v>
       </c>
       <c r="H22">
-        <v>7.056633886488524</v>
+        <v>12.39986241563268</v>
       </c>
       <c r="I22">
-        <v>9.422687146204023</v>
+        <v>19.27687067822648</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.066150479015978</v>
+        <v>10.92346679153083</v>
       </c>
       <c r="M22">
-        <v>16.06269770505681</v>
+        <v>15.28598712841333</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.68819407811565</v>
+        <v>17.97748115630577</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.20653520186018</v>
+        <v>17.39930299721134</v>
       </c>
       <c r="C23">
-        <v>17.22210571909094</v>
+        <v>14.48596604017623</v>
       </c>
       <c r="D23">
-        <v>5.88482794783715</v>
+        <v>4.758498826377529</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>16.66424174012047</v>
+        <v>20.32915194266402</v>
       </c>
       <c r="G23">
-        <v>19.56824592385289</v>
+        <v>21.91988482949642</v>
       </c>
       <c r="H23">
-        <v>7.067349904268952</v>
+        <v>12.41850875925619</v>
       </c>
       <c r="I23">
-        <v>9.553297959616399</v>
+        <v>19.33023526251833</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.033066591027436</v>
+        <v>10.92898688958321</v>
       </c>
       <c r="M23">
-        <v>15.77991880968839</v>
+        <v>15.21661098910034</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.63669900953033</v>
+        <v>18.00428889480714</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.15868803705433</v>
+        <v>16.38600825197215</v>
       </c>
       <c r="C24">
-        <v>16.39939956743082</v>
+        <v>14.17536454270747</v>
       </c>
       <c r="D24">
-        <v>5.549003730925064</v>
+        <v>4.619243700756495</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>15.92798181449081</v>
+        <v>20.3464044160872</v>
       </c>
       <c r="G24">
-        <v>18.54709754039585</v>
+        <v>21.9567042339861</v>
       </c>
       <c r="H24">
-        <v>7.124312682385792</v>
+        <v>12.49351336073216</v>
       </c>
       <c r="I24">
-        <v>10.07596044677017</v>
+        <v>19.54078979230276</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.915757108799026</v>
+        <v>10.95312016277574</v>
       </c>
       <c r="M24">
-        <v>14.66367390434188</v>
+        <v>14.95308720182699</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.47884486960035</v>
+        <v>18.11516553603981</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76134008954918</v>
+        <v>15.2143193939933</v>
       </c>
       <c r="C25">
-        <v>15.46969516440154</v>
+        <v>13.83354448168468</v>
       </c>
       <c r="D25">
-        <v>5.161912447070198</v>
+        <v>4.462177107619338</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15.19017676522964</v>
+        <v>20.39231671605425</v>
       </c>
       <c r="G25">
-        <v>17.54659901828563</v>
+        <v>22.03784282689373</v>
       </c>
       <c r="H25">
-        <v>7.217452964822297</v>
+        <v>12.58376372669706</v>
       </c>
       <c r="I25">
-        <v>10.69152074526717</v>
+        <v>19.785974185584</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.805909503838667</v>
+        <v>10.98604810416971</v>
       </c>
       <c r="M25">
-        <v>13.36205421111073</v>
+        <v>14.66834263221202</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.38275365621169</v>
+        <v>18.25456920160135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.28763719528746</v>
+        <v>21.83192071422086</v>
       </c>
       <c r="C2">
-        <v>13.57739184992911</v>
+        <v>14.75236675314473</v>
       </c>
       <c r="D2">
-        <v>4.341156593273206</v>
+        <v>4.856294151257509</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.44944119857568</v>
+        <v>14.69769235419472</v>
       </c>
       <c r="G2">
-        <v>22.13268719808953</v>
+        <v>16.90021250464909</v>
       </c>
       <c r="H2">
-        <v>12.65824369638209</v>
+        <v>7.31015949653547</v>
       </c>
       <c r="I2">
-        <v>19.9821073716528</v>
+        <v>11.18315334519489</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.01622645986776</v>
+        <v>6.738906854554001</v>
       </c>
       <c r="M2">
-        <v>14.45939861326351</v>
+        <v>12.44252640666207</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.37409351165983</v>
+        <v>11.36987733772224</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.62222537998159</v>
+        <v>20.42095029660599</v>
       </c>
       <c r="C3">
-        <v>13.40173155081667</v>
+        <v>14.2480442596416</v>
       </c>
       <c r="D3">
-        <v>4.256085223386085</v>
+        <v>4.636876351129527</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.50259121829934</v>
+        <v>14.3964447378521</v>
       </c>
       <c r="G3">
-        <v>22.21854043359447</v>
+        <v>16.5193447705152</v>
       </c>
       <c r="H3">
-        <v>12.71372382683534</v>
+        <v>7.386565916583251</v>
       </c>
       <c r="I3">
-        <v>20.12479791732333</v>
+        <v>11.53800883430042</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.04037989549928</v>
+        <v>6.701871785719813</v>
       </c>
       <c r="M3">
-        <v>14.31882187748653</v>
+        <v>11.80913611743271</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.4655489495442</v>
+        <v>11.39398352004448</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.19629600588131</v>
+        <v>19.50338927457025</v>
       </c>
       <c r="C4">
-        <v>13.29311027979399</v>
+        <v>13.93033197327489</v>
       </c>
       <c r="D4">
-        <v>4.202453401185002</v>
+        <v>4.496334156448138</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.54230196721789</v>
+        <v>14.22765972389533</v>
       </c>
       <c r="G4">
-        <v>22.28177580724263</v>
+        <v>16.31362981584552</v>
       </c>
       <c r="H4">
-        <v>12.75025590998129</v>
+        <v>7.439719419499717</v>
       </c>
       <c r="I4">
-        <v>20.21724082664188</v>
+        <v>11.76599765008115</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.05703551618506</v>
+        <v>6.683154289094656</v>
       </c>
       <c r="M4">
-        <v>14.2332096074509</v>
+        <v>11.40496932484566</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.52683226330372</v>
+        <v>11.42383361211661</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.01855328849873</v>
+        <v>19.11657575805162</v>
       </c>
       <c r="C5">
-        <v>13.24869302301696</v>
+        <v>13.79899101543939</v>
       </c>
       <c r="D5">
-        <v>4.180264107764927</v>
+        <v>4.437644009624141</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.56025666370326</v>
+        <v>14.16295169868133</v>
       </c>
       <c r="G5">
-        <v>22.31017104378979</v>
+        <v>16.23681892400393</v>
       </c>
       <c r="H5">
-        <v>12.76576314134915</v>
+        <v>7.462884087414372</v>
       </c>
       <c r="I5">
-        <v>20.25612821101293</v>
+        <v>11.86137321594954</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.06428174025765</v>
+        <v>6.676520867782703</v>
       </c>
       <c r="M5">
-        <v>14.19852834517033</v>
+        <v>11.23659792779626</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.55309148884597</v>
+        <v>11.43960768346792</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.98879345204995</v>
+        <v>19.05156617673987</v>
       </c>
       <c r="C6">
-        <v>13.24130947156169</v>
+        <v>13.77707381521174</v>
       </c>
       <c r="D6">
-        <v>4.176559956110337</v>
+        <v>4.427814377864073</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.56334484131295</v>
+        <v>14.15245270187823</v>
       </c>
       <c r="G6">
-        <v>22.31504408180518</v>
+        <v>16.22448588820459</v>
       </c>
       <c r="H6">
-        <v>12.7683755514246</v>
+        <v>7.466819578904373</v>
       </c>
       <c r="I6">
-        <v>20.2626589296623</v>
+        <v>11.87735742987818</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.06551268530771</v>
+        <v>6.675478899293086</v>
       </c>
       <c r="M6">
-        <v>14.19278287973194</v>
+        <v>11.20842383842469</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.55752935261611</v>
+        <v>11.44243985049782</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.19391552427521</v>
+        <v>19.49822482252399</v>
       </c>
       <c r="C7">
-        <v>13.29251182138239</v>
+        <v>13.92856802054195</v>
       </c>
       <c r="D7">
-        <v>4.202155476708445</v>
+        <v>4.495548317056987</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.54253694485988</v>
+        <v>14.22677056638925</v>
       </c>
       <c r="G7">
-        <v>22.28214814808246</v>
+        <v>16.31256560575719</v>
       </c>
       <c r="H7">
-        <v>12.75046253544579</v>
+        <v>7.440025819190592</v>
       </c>
       <c r="I7">
-        <v>20.21776034931607</v>
+        <v>11.76727401189046</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.05713138325052</v>
+        <v>6.683060827312399</v>
       </c>
       <c r="M7">
-        <v>14.2327410088854</v>
+        <v>11.40271322495694</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.52718120369322</v>
+        <v>11.42403196218053</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.06191386547264</v>
+        <v>21.35603290120273</v>
       </c>
       <c r="C8">
-        <v>13.51700634724864</v>
+        <v>14.58023660405453</v>
       </c>
       <c r="D8">
-        <v>4.312124336539457</v>
+        <v>4.781871332278413</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.46629453462701</v>
+        <v>14.59047222581457</v>
       </c>
       <c r="G8">
-        <v>22.16009455039228</v>
+        <v>16.7630302158642</v>
       </c>
       <c r="H8">
-        <v>12.67686105552683</v>
+        <v>7.335169383006419</v>
       </c>
       <c r="I8">
-        <v>20.03030544521479</v>
+        <v>11.30336209199331</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.02417569272743</v>
+        <v>6.72529241929868</v>
       </c>
       <c r="M8">
-        <v>14.41079994719161</v>
+        <v>12.227392422618</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.40456035125478</v>
+        <v>11.37496187649504</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.61922586867429</v>
+        <v>24.59426967590506</v>
       </c>
       <c r="C9">
-        <v>13.94947587515151</v>
+        <v>15.78822842128384</v>
       </c>
       <c r="D9">
-        <v>4.515957069728207</v>
+        <v>5.295566316171385</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.3732160367077</v>
+        <v>15.43096332964898</v>
       </c>
       <c r="G9">
-        <v>22.00501978156978</v>
+        <v>17.86978658318246</v>
       </c>
       <c r="H9">
-        <v>12.55211493541287</v>
+        <v>7.182126932594507</v>
       </c>
       <c r="I9">
-        <v>19.70096383719544</v>
+        <v>10.47784861651105</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.9740346252634</v>
+        <v>6.840721781575268</v>
       </c>
       <c r="M9">
-        <v>14.76422565474504</v>
+        <v>13.81362227416664</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.20497812000044</v>
+        <v>11.40571534792725</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.66737555131479</v>
+        <v>26.72923737578042</v>
       </c>
       <c r="C10">
-        <v>14.26026495983988</v>
+        <v>16.62617224043084</v>
       </c>
       <c r="D10">
-        <v>4.657603348809118</v>
+        <v>5.642137975443633</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.33956724233782</v>
+        <v>16.12350076576207</v>
       </c>
       <c r="G10">
-        <v>21.94342975622351</v>
+        <v>18.81650789953425</v>
       </c>
       <c r="H10">
-        <v>12.47241939760199</v>
+        <v>7.106204664962958</v>
       </c>
       <c r="I10">
-        <v>19.48222136971546</v>
+        <v>9.929677395043951</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.94602731333844</v>
+        <v>6.946264337567349</v>
       </c>
       <c r="M10">
-        <v>15.02470506283116</v>
+        <v>14.97428170008023</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.083505390073</v>
+        <v>11.51559484105588</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.12214873612405</v>
+        <v>27.64818406331518</v>
       </c>
       <c r="C11">
-        <v>14.39969184956747</v>
+        <v>16.9954410804945</v>
       </c>
       <c r="D11">
-        <v>4.720107983462225</v>
+        <v>5.792854251950536</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.33185403050544</v>
+        <v>16.45408123567768</v>
       </c>
       <c r="G11">
-        <v>21.9269462760385</v>
+        <v>19.27504176946972</v>
       </c>
       <c r="H11">
-        <v>12.43876345139876</v>
+        <v>7.080627716250011</v>
       </c>
       <c r="I11">
-        <v>19.38773328504634</v>
+        <v>9.695017700415923</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.93520296194277</v>
+        <v>6.998934467999576</v>
       </c>
       <c r="M11">
-        <v>15.14300559555516</v>
+        <v>15.47519263532677</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.03375823356702</v>
+        <v>11.58646705550023</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.29111228628535</v>
+        <v>27.98871344852638</v>
       </c>
       <c r="C12">
-        <v>14.45217215719448</v>
+        <v>17.13348032838805</v>
       </c>
       <c r="D12">
-        <v>4.743485970418673</v>
+        <v>5.848913262670593</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.33002785240195</v>
+        <v>16.58142641707627</v>
       </c>
       <c r="G12">
-        <v>21.92237388786886</v>
+        <v>19.45256244402655</v>
       </c>
       <c r="H12">
-        <v>12.42639279425754</v>
+        <v>7.072320728541399</v>
       </c>
       <c r="I12">
-        <v>19.35267361969347</v>
+        <v>9.608490892827687</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.93137946836037</v>
+        <v>7.01955961754375</v>
       </c>
       <c r="M12">
-        <v>15.18774399090876</v>
+        <v>15.66100715662678</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.01571694166497</v>
+        <v>11.61645111291434</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.25486860253583</v>
+        <v>27.915704958493</v>
       </c>
       <c r="C13">
-        <v>14.4408842830862</v>
+        <v>17.10383209565508</v>
       </c>
       <c r="D13">
-        <v>4.738464256803073</v>
+        <v>5.836885260486684</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.33037243645856</v>
+        <v>16.55390538963742</v>
       </c>
       <c r="G13">
-        <v>21.92328422803436</v>
+        <v>19.41415947800888</v>
       </c>
       <c r="H13">
-        <v>12.42904038885303</v>
+        <v>7.074047013922166</v>
       </c>
       <c r="I13">
-        <v>19.36019229453261</v>
+        <v>9.627018248915187</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.93219067763209</v>
+        <v>7.015087222217016</v>
       </c>
       <c r="M13">
-        <v>15.17811192087215</v>
+        <v>15.62116033794153</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.01956694703053</v>
+        <v>11.60985144315811</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.13611499823887</v>
+        <v>27.6763486901887</v>
       </c>
       <c r="C14">
-        <v>14.40401600814167</v>
+        <v>17.00683404548975</v>
       </c>
       <c r="D14">
-        <v>4.722037213715777</v>
+        <v>5.797486659303395</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.33168183980437</v>
+        <v>16.46451510161507</v>
       </c>
       <c r="G14">
-        <v>21.92653658746967</v>
+        <v>19.28956939133385</v>
       </c>
       <c r="H14">
-        <v>12.43773820895625</v>
+        <v>7.079916142614715</v>
       </c>
       <c r="I14">
-        <v>19.38483446119933</v>
+        <v>9.687850909698305</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.93488288116795</v>
+        <v>7.000617625996592</v>
       </c>
       <c r="M14">
-        <v>15.14668762167709</v>
+        <v>15.49055710384684</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.03225797042227</v>
+        <v>11.58887003412162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.06294970132668</v>
+        <v>27.52876693815345</v>
       </c>
       <c r="C15">
-        <v>14.3813906895866</v>
+        <v>16.94718399623589</v>
       </c>
       <c r="D15">
-        <v>4.711936873561618</v>
+        <v>5.773221424022306</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.33262650393701</v>
+        <v>16.41004027805607</v>
       </c>
       <c r="G15">
-        <v>21.92874646497413</v>
+        <v>19.21375639152467</v>
       </c>
       <c r="H15">
-        <v>12.44311461246869</v>
+        <v>7.083693392509296</v>
       </c>
       <c r="I15">
-        <v>19.40002236286798</v>
+        <v>9.725423816575432</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.93656780146016</v>
+        <v>6.991843437553472</v>
       </c>
       <c r="M15">
-        <v>15.12743065583869</v>
+        <v>15.41005572128328</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.04013549316789</v>
+        <v>11.57643207071719</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.63720442977077</v>
+        <v>26.66813538774588</v>
       </c>
       <c r="C16">
-        <v>14.25111061337708</v>
+        <v>16.60179263150641</v>
       </c>
       <c r="D16">
-        <v>4.653478492869232</v>
+        <v>5.632147196626614</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.34022437749523</v>
+        <v>16.10220304776851</v>
       </c>
       <c r="G16">
-        <v>21.94474007102464</v>
+        <v>18.78709200232369</v>
       </c>
       <c r="H16">
-        <v>12.47467121584062</v>
+        <v>7.108064100273658</v>
       </c>
       <c r="I16">
-        <v>19.4884973123267</v>
+        <v>9.945326657095576</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.94677326320515</v>
+        <v>6.942916859421892</v>
       </c>
       <c r="M16">
-        <v>15.01696724242625</v>
+        <v>14.94100306643468</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.08686776025795</v>
+        <v>11.51139597199134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.37031771473173</v>
+        <v>26.12682124402258</v>
       </c>
       <c r="C17">
-        <v>14.17066126503659</v>
+        <v>16.3867923329936</v>
       </c>
       <c r="D17">
-        <v>4.617111700041328</v>
+        <v>5.543812434930525</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.34683260997928</v>
+        <v>15.91728376801839</v>
       </c>
       <c r="G17">
-        <v>21.95751425612613</v>
+        <v>18.53239933411542</v>
       </c>
       <c r="H17">
-        <v>12.49469594521841</v>
+        <v>7.125372679774027</v>
       </c>
       <c r="I17">
-        <v>19.54405870870291</v>
+        <v>10.08413946250732</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.95352473750833</v>
+        <v>6.914102743962987</v>
       </c>
       <c r="M17">
-        <v>14.94912941487648</v>
+        <v>14.64633467410613</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.11695120844931</v>
+        <v>11.47695372198359</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.214741269358</v>
+        <v>25.81054877440557</v>
       </c>
       <c r="C18">
-        <v>14.12420726158819</v>
+        <v>16.26201228587556</v>
       </c>
       <c r="D18">
-        <v>4.596013476324276</v>
+        <v>5.492351986188685</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.35134816010445</v>
+        <v>15.81239055228369</v>
       </c>
       <c r="G18">
-        <v>21.96594675164962</v>
+        <v>18.38853787995881</v>
       </c>
       <c r="H18">
-        <v>12.50645813854397</v>
+        <v>7.136165923059225</v>
       </c>
       <c r="I18">
-        <v>19.57648860507969</v>
+        <v>10.1653496993412</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.95758838985548</v>
+        <v>6.897967551771758</v>
       </c>
       <c r="M18">
-        <v>14.91009461094499</v>
+        <v>14.4742986344395</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.13477291569185</v>
+        <v>11.45910170124855</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.16171288228759</v>
+        <v>25.70261710949855</v>
       </c>
       <c r="C19">
-        <v>14.10844867692578</v>
+        <v>16.21957464949366</v>
       </c>
       <c r="D19">
-        <v>4.588839319012616</v>
+        <v>5.474816821077091</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.35299969454687</v>
+        <v>15.7771297637732</v>
       </c>
       <c r="G19">
-        <v>21.96898785241686</v>
+        <v>18.34028436661221</v>
       </c>
       <c r="H19">
-        <v>12.51048259187931</v>
+        <v>7.139961537094226</v>
       </c>
       <c r="I19">
-        <v>19.58754998041004</v>
+        <v>10.19307517689424</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.95899525607165</v>
+        <v>6.892579336123209</v>
       </c>
       <c r="M19">
-        <v>14.89687627471035</v>
+        <v>14.41561146183489</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.14089595943429</v>
+        <v>11.45338909068618</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.39894315502499</v>
+        <v>26.18495414440844</v>
       </c>
       <c r="C20">
-        <v>14.17924430832777</v>
+        <v>16.40979577434934</v>
       </c>
       <c r="D20">
-        <v>4.621001841445184</v>
+        <v>5.553283493230526</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.34605516406493</v>
+        <v>15.93681739275408</v>
       </c>
       <c r="G20">
-        <v>21.95604203020537</v>
+        <v>18.55924037126638</v>
       </c>
       <c r="H20">
-        <v>12.49253897005611</v>
+        <v>7.123442801047599</v>
       </c>
       <c r="I20">
-        <v>19.53809521238122</v>
+        <v>10.06921948484313</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.95278736320794</v>
+        <v>6.917124654405182</v>
       </c>
       <c r="M20">
-        <v>14.95635278352366</v>
+        <v>14.67796644109183</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.11369507914516</v>
+        <v>11.48041641268555</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.17108456356298</v>
+        <v>27.74685528121136</v>
       </c>
       <c r="C21">
-        <v>14.41485402160241</v>
+        <v>17.03537402213871</v>
       </c>
       <c r="D21">
-        <v>4.726870239297243</v>
+        <v>5.809086609904604</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.33126751180778</v>
+        <v>16.49071311923746</v>
       </c>
       <c r="G21">
-        <v>21.9255359028174</v>
+        <v>19.3260601253107</v>
       </c>
       <c r="H21">
-        <v>12.43517329051296</v>
+        <v>7.078154093839863</v>
       </c>
       <c r="I21">
-        <v>19.37757689984175</v>
+        <v>9.669917588080086</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.93408464117334</v>
+        <v>7.004849162588461</v>
       </c>
       <c r="M21">
-        <v>15.15591956390262</v>
+        <v>15.52902324154608</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.02850864797784</v>
+        <v>11.59494631989813</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.65675715254643</v>
+        <v>28.72422059199388</v>
       </c>
       <c r="C22">
-        <v>14.56697106844949</v>
+        <v>17.43373471759924</v>
       </c>
       <c r="D22">
-        <v>4.794358655836125</v>
+        <v>5.970353779575225</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.32798386281392</v>
+        <v>16.86528154313297</v>
       </c>
       <c r="G22">
-        <v>21.91533335642296</v>
+        <v>19.84979956014982</v>
       </c>
       <c r="H22">
-        <v>12.39986241563268</v>
+        <v>7.056633886488547</v>
       </c>
       <c r="I22">
-        <v>19.27687067822648</v>
+        <v>9.422687146204142</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.92346679153083</v>
+        <v>7.066150479015985</v>
       </c>
       <c r="M22">
-        <v>15.28598712841333</v>
+        <v>16.0626977050568</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.97748115630577</v>
+        <v>11.68819407811571</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.39930299721134</v>
+        <v>28.20653520186013</v>
       </c>
       <c r="C23">
-        <v>14.48596604017623</v>
+        <v>17.22210571909092</v>
       </c>
       <c r="D23">
-        <v>4.758498826377529</v>
+        <v>5.88482794783715</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.32915194266402</v>
+        <v>16.66424174012051</v>
       </c>
       <c r="G23">
-        <v>21.91988482949642</v>
+        <v>19.56824592385297</v>
       </c>
       <c r="H23">
-        <v>12.41850875925619</v>
+        <v>7.067349904268909</v>
       </c>
       <c r="I23">
-        <v>19.33023526251833</v>
+        <v>9.553297959616417</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.92898688958321</v>
+        <v>7.033066591027438</v>
       </c>
       <c r="M23">
-        <v>15.21661098910034</v>
+        <v>15.77991880968838</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.00428889480714</v>
+        <v>11.63669900953036</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.38600825197215</v>
+        <v>26.15868803705435</v>
       </c>
       <c r="C24">
-        <v>14.17536454270747</v>
+        <v>16.39939956743079</v>
       </c>
       <c r="D24">
-        <v>4.619243700756495</v>
+        <v>5.549003730925064</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.3464044160872</v>
+        <v>15.9279818144908</v>
       </c>
       <c r="G24">
-        <v>21.9567042339861</v>
+        <v>18.54709754039589</v>
       </c>
       <c r="H24">
-        <v>12.49351336073216</v>
+        <v>7.124312682385756</v>
       </c>
       <c r="I24">
-        <v>19.54078979230276</v>
+        <v>10.07596044677009</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.95312016277574</v>
+        <v>6.91575710879912</v>
       </c>
       <c r="M24">
-        <v>14.95308720182699</v>
+        <v>14.66367390434187</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.11516553603981</v>
+        <v>11.47884486960032</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.2143193939933</v>
+        <v>23.76134008954915</v>
       </c>
       <c r="C25">
-        <v>13.83354448168468</v>
+        <v>15.46969516440152</v>
       </c>
       <c r="D25">
-        <v>4.462177107619338</v>
+        <v>5.161912447070271</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.39231671605425</v>
+        <v>15.19017676522972</v>
       </c>
       <c r="G25">
-        <v>22.03784282689373</v>
+        <v>17.5465990182858</v>
       </c>
       <c r="H25">
-        <v>12.58376372669706</v>
+        <v>7.217452964822348</v>
       </c>
       <c r="I25">
-        <v>19.785974185584</v>
+        <v>10.6915207452673</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.98604810416971</v>
+        <v>6.805909503838661</v>
       </c>
       <c r="M25">
-        <v>14.66834263221202</v>
+        <v>13.3620542111107</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.25456920160135</v>
+        <v>11.38275365621181</v>
       </c>
     </row>
   </sheetData>
